--- a/holtsTrend.xlsx
+++ b/holtsTrend.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="307">
   <si>
     <t>UnitPrice</t>
   </si>
@@ -22,70 +22,919 @@
     <t>InvoiceDate</t>
   </si>
   <si>
-    <t>201001</t>
-  </si>
-  <si>
-    <t>201002</t>
-  </si>
-  <si>
-    <t>201003</t>
-  </si>
-  <si>
-    <t>201005</t>
-  </si>
-  <si>
-    <t>201006</t>
-  </si>
-  <si>
-    <t>201007</t>
-  </si>
-  <si>
-    <t>201008</t>
-  </si>
-  <si>
-    <t>201009</t>
-  </si>
-  <si>
-    <t>201010</t>
-  </si>
-  <si>
-    <t>201012</t>
-  </si>
-  <si>
-    <t>201101</t>
-  </si>
-  <si>
-    <t>201102</t>
-  </si>
-  <si>
-    <t>201103</t>
-  </si>
-  <si>
-    <t>201104</t>
-  </si>
-  <si>
-    <t>201105</t>
-  </si>
-  <si>
-    <t>201106</t>
-  </si>
-  <si>
-    <t>201107</t>
-  </si>
-  <si>
-    <t>201108</t>
-  </si>
-  <si>
-    <t>201109</t>
-  </si>
-  <si>
-    <t>201110</t>
-  </si>
-  <si>
-    <t>201111</t>
-  </si>
-  <si>
-    <t>201112</t>
+    <t>2010-01-12</t>
+  </si>
+  <si>
+    <t>2010-02-12</t>
+  </si>
+  <si>
+    <t>2010-03-12</t>
+  </si>
+  <si>
+    <t>2010-05-12</t>
+  </si>
+  <si>
+    <t>2010-06-12</t>
+  </si>
+  <si>
+    <t>2010-07-12</t>
+  </si>
+  <si>
+    <t>2010-08-12</t>
+  </si>
+  <si>
+    <t>2010-09-12</t>
+  </si>
+  <si>
+    <t>2010-10-12</t>
+  </si>
+  <si>
+    <t>2010-12-12</t>
+  </si>
+  <si>
+    <t>2010-12-13</t>
+  </si>
+  <si>
+    <t>2010-12-14</t>
+  </si>
+  <si>
+    <t>2010-12-15</t>
+  </si>
+  <si>
+    <t>2010-12-16</t>
+  </si>
+  <si>
+    <t>2010-12-17</t>
+  </si>
+  <si>
+    <t>2010-12-19</t>
+  </si>
+  <si>
+    <t>2010-12-20</t>
+  </si>
+  <si>
+    <t>2010-12-21</t>
+  </si>
+  <si>
+    <t>2010-12-22</t>
+  </si>
+  <si>
+    <t>2010-12-23</t>
+  </si>
+  <si>
+    <t>2011-01-02</t>
+  </si>
+  <si>
+    <t>2011-01-03</t>
+  </si>
+  <si>
+    <t>2011-01-04</t>
+  </si>
+  <si>
+    <t>2011-01-05</t>
+  </si>
+  <si>
+    <t>2011-01-06</t>
+  </si>
+  <si>
+    <t>2011-01-07</t>
+  </si>
+  <si>
+    <t>2011-01-08</t>
+  </si>
+  <si>
+    <t>2011-01-09</t>
+  </si>
+  <si>
+    <t>2011-01-11</t>
+  </si>
+  <si>
+    <t>2011-01-12</t>
+  </si>
+  <si>
+    <t>2011-01-13</t>
+  </si>
+  <si>
+    <t>2011-01-14</t>
+  </si>
+  <si>
+    <t>2011-01-16</t>
+  </si>
+  <si>
+    <t>2011-01-17</t>
+  </si>
+  <si>
+    <t>2011-01-18</t>
+  </si>
+  <si>
+    <t>2011-01-19</t>
+  </si>
+  <si>
+    <t>2011-01-20</t>
+  </si>
+  <si>
+    <t>2011-01-21</t>
+  </si>
+  <si>
+    <t>2011-01-23</t>
+  </si>
+  <si>
+    <t>2011-01-24</t>
+  </si>
+  <si>
+    <t>2011-01-25</t>
+  </si>
+  <si>
+    <t>2011-01-26</t>
+  </si>
+  <si>
+    <t>2011-01-27</t>
+  </si>
+  <si>
+    <t>2011-01-28</t>
+  </si>
+  <si>
+    <t>2011-01-30</t>
+  </si>
+  <si>
+    <t>2011-01-31</t>
+  </si>
+  <si>
+    <t>2011-02-02</t>
+  </si>
+  <si>
+    <t>2011-02-03</t>
+  </si>
+  <si>
+    <t>2011-02-06</t>
+  </si>
+  <si>
+    <t>2011-02-08</t>
+  </si>
+  <si>
+    <t>2011-02-09</t>
+  </si>
+  <si>
+    <t>2011-02-10</t>
+  </si>
+  <si>
+    <t>2011-02-11</t>
+  </si>
+  <si>
+    <t>2011-02-12</t>
+  </si>
+  <si>
+    <t>2011-02-13</t>
+  </si>
+  <si>
+    <t>2011-02-14</t>
+  </si>
+  <si>
+    <t>2011-02-15</t>
+  </si>
+  <si>
+    <t>2011-02-16</t>
+  </si>
+  <si>
+    <t>2011-02-17</t>
+  </si>
+  <si>
+    <t>2011-02-18</t>
+  </si>
+  <si>
+    <t>2011-02-20</t>
+  </si>
+  <si>
+    <t>2011-02-21</t>
+  </si>
+  <si>
+    <t>2011-02-22</t>
+  </si>
+  <si>
+    <t>2011-02-23</t>
+  </si>
+  <si>
+    <t>2011-02-24</t>
+  </si>
+  <si>
+    <t>2011-02-25</t>
+  </si>
+  <si>
+    <t>2011-02-27</t>
+  </si>
+  <si>
+    <t>2011-02-28</t>
+  </si>
+  <si>
+    <t>2011-03-02</t>
+  </si>
+  <si>
+    <t>2011-03-03</t>
+  </si>
+  <si>
+    <t>2011-03-04</t>
+  </si>
+  <si>
+    <t>2011-03-05</t>
+  </si>
+  <si>
+    <t>2011-03-06</t>
+  </si>
+  <si>
+    <t>2011-03-07</t>
+  </si>
+  <si>
+    <t>2011-03-08</t>
+  </si>
+  <si>
+    <t>2011-03-10</t>
+  </si>
+  <si>
+    <t>2011-03-11</t>
+  </si>
+  <si>
+    <t>2011-03-13</t>
+  </si>
+  <si>
+    <t>2011-03-14</t>
+  </si>
+  <si>
+    <t>2011-03-15</t>
+  </si>
+  <si>
+    <t>2011-03-16</t>
+  </si>
+  <si>
+    <t>2011-03-17</t>
+  </si>
+  <si>
+    <t>2011-03-18</t>
+  </si>
+  <si>
+    <t>2011-03-20</t>
+  </si>
+  <si>
+    <t>2011-03-21</t>
+  </si>
+  <si>
+    <t>2011-03-22</t>
+  </si>
+  <si>
+    <t>2011-03-23</t>
+  </si>
+  <si>
+    <t>2011-03-24</t>
+  </si>
+  <si>
+    <t>2011-03-25</t>
+  </si>
+  <si>
+    <t>2011-03-27</t>
+  </si>
+  <si>
+    <t>2011-03-28</t>
+  </si>
+  <si>
+    <t>2011-03-29</t>
+  </si>
+  <si>
+    <t>2011-03-30</t>
+  </si>
+  <si>
+    <t>2011-03-31</t>
+  </si>
+  <si>
+    <t>2011-04-01</t>
+  </si>
+  <si>
+    <t>2011-04-02</t>
+  </si>
+  <si>
+    <t>2011-04-03</t>
+  </si>
+  <si>
+    <t>2011-04-04</t>
+  </si>
+  <si>
+    <t>2011-04-05</t>
+  </si>
+  <si>
+    <t>2011-04-07</t>
+  </si>
+  <si>
+    <t>2011-04-08</t>
+  </si>
+  <si>
+    <t>2011-04-09</t>
+  </si>
+  <si>
+    <t>2011-04-10</t>
+  </si>
+  <si>
+    <t>2011-04-11</t>
+  </si>
+  <si>
+    <t>2011-04-12</t>
+  </si>
+  <si>
+    <t>2011-04-13</t>
+  </si>
+  <si>
+    <t>2011-04-14</t>
+  </si>
+  <si>
+    <t>2011-04-15</t>
+  </si>
+  <si>
+    <t>2011-04-17</t>
+  </si>
+  <si>
+    <t>2011-04-18</t>
+  </si>
+  <si>
+    <t>2011-04-19</t>
+  </si>
+  <si>
+    <t>2011-04-20</t>
+  </si>
+  <si>
+    <t>2011-04-21</t>
+  </si>
+  <si>
+    <t>2011-04-26</t>
+  </si>
+  <si>
+    <t>2011-04-27</t>
+  </si>
+  <si>
+    <t>2011-04-28</t>
+  </si>
+  <si>
+    <t>2011-05-01</t>
+  </si>
+  <si>
+    <t>2011-05-04</t>
+  </si>
+  <si>
+    <t>2011-05-05</t>
+  </si>
+  <si>
+    <t>2011-05-06</t>
+  </si>
+  <si>
+    <t>2011-05-07</t>
+  </si>
+  <si>
+    <t>2011-05-08</t>
+  </si>
+  <si>
+    <t>2011-05-09</t>
+  </si>
+  <si>
+    <t>2011-05-10</t>
+  </si>
+  <si>
+    <t>2011-05-12</t>
+  </si>
+  <si>
+    <t>2011-05-13</t>
+  </si>
+  <si>
+    <t>2011-05-15</t>
+  </si>
+  <si>
+    <t>2011-05-16</t>
+  </si>
+  <si>
+    <t>2011-05-17</t>
+  </si>
+  <si>
+    <t>2011-05-18</t>
+  </si>
+  <si>
+    <t>2011-05-19</t>
+  </si>
+  <si>
+    <t>2011-05-20</t>
+  </si>
+  <si>
+    <t>2011-05-22</t>
+  </si>
+  <si>
+    <t>2011-05-23</t>
+  </si>
+  <si>
+    <t>2011-05-24</t>
+  </si>
+  <si>
+    <t>2011-05-25</t>
+  </si>
+  <si>
+    <t>2011-05-26</t>
+  </si>
+  <si>
+    <t>2011-05-27</t>
+  </si>
+  <si>
+    <t>2011-05-29</t>
+  </si>
+  <si>
+    <t>2011-05-31</t>
+  </si>
+  <si>
+    <t>2011-06-01</t>
+  </si>
+  <si>
+    <t>2011-06-02</t>
+  </si>
+  <si>
+    <t>2011-06-03</t>
+  </si>
+  <si>
+    <t>2011-06-04</t>
+  </si>
+  <si>
+    <t>2011-06-05</t>
+  </si>
+  <si>
+    <t>2011-06-06</t>
+  </si>
+  <si>
+    <t>2011-06-07</t>
+  </si>
+  <si>
+    <t>2011-06-09</t>
+  </si>
+  <si>
+    <t>2011-06-10</t>
+  </si>
+  <si>
+    <t>2011-06-11</t>
+  </si>
+  <si>
+    <t>2011-06-12</t>
+  </si>
+  <si>
+    <t>2011-06-13</t>
+  </si>
+  <si>
+    <t>2011-06-14</t>
+  </si>
+  <si>
+    <t>2011-06-15</t>
+  </si>
+  <si>
+    <t>2011-06-16</t>
+  </si>
+  <si>
+    <t>2011-06-17</t>
+  </si>
+  <si>
+    <t>2011-06-19</t>
+  </si>
+  <si>
+    <t>2011-06-20</t>
+  </si>
+  <si>
+    <t>2011-06-21</t>
+  </si>
+  <si>
+    <t>2011-06-22</t>
+  </si>
+  <si>
+    <t>2011-06-23</t>
+  </si>
+  <si>
+    <t>2011-06-24</t>
+  </si>
+  <si>
+    <t>2011-06-26</t>
+  </si>
+  <si>
+    <t>2011-06-27</t>
+  </si>
+  <si>
+    <t>2011-06-28</t>
+  </si>
+  <si>
+    <t>2011-06-29</t>
+  </si>
+  <si>
+    <t>2011-06-30</t>
+  </si>
+  <si>
+    <t>2011-07-01</t>
+  </si>
+  <si>
+    <t>2011-07-02</t>
+  </si>
+  <si>
+    <t>2011-07-03</t>
+  </si>
+  <si>
+    <t>2011-07-04</t>
+  </si>
+  <si>
+    <t>2011-07-06</t>
+  </si>
+  <si>
+    <t>2011-07-07</t>
+  </si>
+  <si>
+    <t>2011-07-08</t>
+  </si>
+  <si>
+    <t>2011-07-09</t>
+  </si>
+  <si>
+    <t>2011-07-10</t>
+  </si>
+  <si>
+    <t>2011-07-11</t>
+  </si>
+  <si>
+    <t>2011-07-12</t>
+  </si>
+  <si>
+    <t>2011-07-13</t>
+  </si>
+  <si>
+    <t>2011-07-14</t>
+  </si>
+  <si>
+    <t>2011-07-15</t>
+  </si>
+  <si>
+    <t>2011-07-17</t>
+  </si>
+  <si>
+    <t>2011-07-18</t>
+  </si>
+  <si>
+    <t>2011-07-19</t>
+  </si>
+  <si>
+    <t>2011-07-20</t>
+  </si>
+  <si>
+    <t>2011-07-21</t>
+  </si>
+  <si>
+    <t>2011-07-22</t>
+  </si>
+  <si>
+    <t>2011-07-24</t>
+  </si>
+  <si>
+    <t>2011-07-25</t>
+  </si>
+  <si>
+    <t>2011-07-26</t>
+  </si>
+  <si>
+    <t>2011-07-27</t>
+  </si>
+  <si>
+    <t>2011-07-28</t>
+  </si>
+  <si>
+    <t>2011-07-29</t>
+  </si>
+  <si>
+    <t>2011-07-31</t>
+  </si>
+  <si>
+    <t>2011-08-02</t>
+  </si>
+  <si>
+    <t>2011-08-03</t>
+  </si>
+  <si>
+    <t>2011-08-04</t>
+  </si>
+  <si>
+    <t>2011-08-05</t>
+  </si>
+  <si>
+    <t>2011-08-06</t>
+  </si>
+  <si>
+    <t>2011-08-07</t>
+  </si>
+  <si>
+    <t>2011-08-08</t>
+  </si>
+  <si>
+    <t>2011-08-09</t>
+  </si>
+  <si>
+    <t>2011-08-11</t>
+  </si>
+  <si>
+    <t>2011-08-12</t>
+  </si>
+  <si>
+    <t>2011-08-14</t>
+  </si>
+  <si>
+    <t>2011-08-15</t>
+  </si>
+  <si>
+    <t>2011-08-16</t>
+  </si>
+  <si>
+    <t>2011-08-17</t>
+  </si>
+  <si>
+    <t>2011-08-18</t>
+  </si>
+  <si>
+    <t>2011-08-19</t>
+  </si>
+  <si>
+    <t>2011-08-21</t>
+  </si>
+  <si>
+    <t>2011-08-22</t>
+  </si>
+  <si>
+    <t>2011-08-23</t>
+  </si>
+  <si>
+    <t>2011-08-24</t>
+  </si>
+  <si>
+    <t>2011-08-25</t>
+  </si>
+  <si>
+    <t>2011-08-26</t>
+  </si>
+  <si>
+    <t>2011-08-28</t>
+  </si>
+  <si>
+    <t>2011-08-30</t>
+  </si>
+  <si>
+    <t>2011-08-31</t>
+  </si>
+  <si>
+    <t>2011-09-01</t>
+  </si>
+  <si>
+    <t>2011-09-02</t>
+  </si>
+  <si>
+    <t>2011-09-03</t>
+  </si>
+  <si>
+    <t>2011-09-05</t>
+  </si>
+  <si>
+    <t>2011-09-06</t>
+  </si>
+  <si>
+    <t>2011-09-08</t>
+  </si>
+  <si>
+    <t>2011-09-09</t>
+  </si>
+  <si>
+    <t>2011-09-10</t>
+  </si>
+  <si>
+    <t>2011-09-11</t>
+  </si>
+  <si>
+    <t>2011-09-12</t>
+  </si>
+  <si>
+    <t>2011-09-13</t>
+  </si>
+  <si>
+    <t>2011-09-14</t>
+  </si>
+  <si>
+    <t>2011-09-15</t>
+  </si>
+  <si>
+    <t>2011-09-16</t>
+  </si>
+  <si>
+    <t>2011-09-18</t>
+  </si>
+  <si>
+    <t>2011-09-19</t>
+  </si>
+  <si>
+    <t>2011-09-20</t>
+  </si>
+  <si>
+    <t>2011-09-21</t>
+  </si>
+  <si>
+    <t>2011-09-22</t>
+  </si>
+  <si>
+    <t>2011-09-23</t>
+  </si>
+  <si>
+    <t>2011-09-25</t>
+  </si>
+  <si>
+    <t>2011-09-26</t>
+  </si>
+  <si>
+    <t>2011-09-27</t>
+  </si>
+  <si>
+    <t>2011-09-28</t>
+  </si>
+  <si>
+    <t>2011-09-29</t>
+  </si>
+  <si>
+    <t>2011-09-30</t>
+  </si>
+  <si>
+    <t>2011-10-01</t>
+  </si>
+  <si>
+    <t>2011-10-02</t>
+  </si>
+  <si>
+    <t>2011-10-03</t>
+  </si>
+  <si>
+    <t>2011-10-04</t>
+  </si>
+  <si>
+    <t>2011-10-05</t>
+  </si>
+  <si>
+    <t>2011-10-06</t>
+  </si>
+  <si>
+    <t>2011-10-07</t>
+  </si>
+  <si>
+    <t>2011-10-08</t>
+  </si>
+  <si>
+    <t>2011-10-10</t>
+  </si>
+  <si>
+    <t>2011-10-11</t>
+  </si>
+  <si>
+    <t>2011-10-13</t>
+  </si>
+  <si>
+    <t>2011-10-14</t>
+  </si>
+  <si>
+    <t>2011-10-16</t>
+  </si>
+  <si>
+    <t>2011-10-17</t>
+  </si>
+  <si>
+    <t>2011-10-18</t>
+  </si>
+  <si>
+    <t>2011-10-19</t>
+  </si>
+  <si>
+    <t>2011-10-20</t>
+  </si>
+  <si>
+    <t>2011-10-21</t>
+  </si>
+  <si>
+    <t>2011-10-23</t>
+  </si>
+  <si>
+    <t>2011-10-24</t>
+  </si>
+  <si>
+    <t>2011-10-25</t>
+  </si>
+  <si>
+    <t>2011-10-26</t>
+  </si>
+  <si>
+    <t>2011-10-27</t>
+  </si>
+  <si>
+    <t>2011-10-28</t>
+  </si>
+  <si>
+    <t>2011-10-30</t>
+  </si>
+  <si>
+    <t>2011-10-31</t>
+  </si>
+  <si>
+    <t>2011-11-01</t>
+  </si>
+  <si>
+    <t>2011-11-02</t>
+  </si>
+  <si>
+    <t>2011-11-03</t>
+  </si>
+  <si>
+    <t>2011-11-04</t>
+  </si>
+  <si>
+    <t>2011-11-05</t>
+  </si>
+  <si>
+    <t>2011-11-07</t>
+  </si>
+  <si>
+    <t>2011-11-08</t>
+  </si>
+  <si>
+    <t>2011-11-09</t>
+  </si>
+  <si>
+    <t>2011-11-10</t>
+  </si>
+  <si>
+    <t>2011-11-11</t>
+  </si>
+  <si>
+    <t>2011-11-13</t>
+  </si>
+  <si>
+    <t>2011-11-14</t>
+  </si>
+  <si>
+    <t>2011-11-15</t>
+  </si>
+  <si>
+    <t>2011-11-16</t>
+  </si>
+  <si>
+    <t>2011-11-17</t>
+  </si>
+  <si>
+    <t>2011-11-18</t>
+  </si>
+  <si>
+    <t>2011-11-20</t>
+  </si>
+  <si>
+    <t>2011-11-21</t>
+  </si>
+  <si>
+    <t>2011-11-22</t>
+  </si>
+  <si>
+    <t>2011-11-23</t>
+  </si>
+  <si>
+    <t>2011-11-24</t>
+  </si>
+  <si>
+    <t>2011-11-25</t>
+  </si>
+  <si>
+    <t>2011-11-27</t>
+  </si>
+  <si>
+    <t>2011-11-28</t>
+  </si>
+  <si>
+    <t>2011-11-29</t>
+  </si>
+  <si>
+    <t>2011-11-30</t>
+  </si>
+  <si>
+    <t>2011-12-01</t>
+  </si>
+  <si>
+    <t>2011-12-04</t>
+  </si>
+  <si>
+    <t>2011-12-05</t>
+  </si>
+  <si>
+    <t>2011-12-06</t>
+  </si>
+  <si>
+    <t>2011-12-07</t>
+  </si>
+  <si>
+    <t>2011-12-08</t>
+  </si>
+  <si>
+    <t>2011-12-09</t>
+  </si>
+  <si>
+    <t>2011-12-10</t>
   </si>
 </sst>
 </file>
@@ -443,7 +1292,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B306"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,7 +1383,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>34052.96999999994</v>
+        <v>3758.199999999999</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -542,7 +1391,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>83124.38999999965</v>
+        <v>4024.63</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -550,7 +1399,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>71555.41999999974</v>
+        <v>4875.229999999994</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -558,7 +1407,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>113245.3499999996</v>
+        <v>4715.389999999999</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -566,7 +1415,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>96568.66099999963</v>
+        <v>5668.619999999999</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -574,7 +1423,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>106728.8099999995</v>
+        <v>3159.460000000001</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -582,7 +1431,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>101360.6399999996</v>
+        <v>1489.96</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -590,7 +1439,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>109242.9709999996</v>
+        <v>2959.759999999999</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -598,7 +1447,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>94045.6599999999</v>
+        <v>1695.71</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -606,7 +1455,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>121361.7819999996</v>
+        <v>648.9899999999999</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -614,7 +1463,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>209338.9900000006</v>
+        <v>1057.02</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -622,7 +1471,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>172766.1900000006</v>
+        <v>3954.279999999999</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -630,7 +1479,2271 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>31055.71000000006</v>
+        <v>5563.49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24">
+        <v>3869.329999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25">
+        <v>1291.71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26">
+        <v>2248.439999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27">
+        <v>2322.77</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28">
+        <v>3452.480000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29">
+        <v>3525.450000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30">
+        <v>5170.52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31">
+        <v>6510.169999999997</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32">
+        <v>2573.419999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33">
+        <v>2327.909999999998</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34">
+        <v>1716.8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35">
+        <v>3024.76</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36">
+        <v>1707.27</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37">
+        <v>2560.71</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38">
+        <v>2053.42</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39">
+        <v>2579.829999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40">
+        <v>2560.759999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41">
+        <v>2559.03</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42">
+        <v>4028.609999999998</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43">
+        <v>3397.23</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44">
+        <v>6382.039999999998</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45">
+        <v>2466.219999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46">
+        <v>2283.33</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47">
+        <v>2994.409999999998</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48">
+        <v>2987.37</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49">
+        <v>3445.259999999998</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B50">
+        <v>3596.499999999998</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B51">
+        <v>2776.42</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B52">
+        <v>4534.77</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B53">
+        <v>3634.259999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B54">
+        <v>4846.46</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B55">
+        <v>5523.48</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B56">
+        <v>1827.71</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B57">
+        <v>2432.059999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B58">
+        <v>3137.919999999999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B59">
+        <v>2993.16</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B60">
+        <v>2983.699999999998</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B61">
+        <v>1911.04</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B62">
+        <v>2625.969999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B63">
+        <v>3442.429999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B64">
+        <v>3463.940000000001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B65">
+        <v>3169.59</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B66">
+        <v>4162.579999999999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B67">
+        <v>2471.18</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B68">
+        <v>2350.559999999999</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B69">
+        <v>3239.06</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B70">
+        <v>2927</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B71">
+        <v>3437.100000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B72">
+        <v>1726.29</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B73">
+        <v>26403.39</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B74">
+        <v>2182.570000000001</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B75">
+        <v>1741.25</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B76">
+        <v>4011.159999999999</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B77">
+        <v>10159.02</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B78">
+        <v>5959.25</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B79">
+        <v>1352.43</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B80">
+        <v>3787.369999999999</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B81">
+        <v>2442.489999999999</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B82">
+        <v>3086.81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B83">
+        <v>3155.019999999999</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B84">
+        <v>3069.349999999999</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B85">
+        <v>3604.650000000001</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B86">
+        <v>2828.44</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B87">
+        <v>3347.27</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B88">
+        <v>3007.670000000001</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B89">
+        <v>4520.219999999998</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B90">
+        <v>3387.5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B91">
+        <v>2148.869999999999</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B92">
+        <v>4073.410000000001</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B93">
+        <v>2981.969999999999</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B94">
+        <v>3586.159999999998</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B95">
+        <v>4318.689999999997</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B96">
+        <v>2558.259999999999</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B97">
+        <v>2793.83</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B98">
+        <v>2240.33</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B99">
+        <v>16190.45</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B100">
+        <v>3570.07</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B101">
+        <v>3280.93</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B102">
+        <v>4554.639999999999</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B103">
+        <v>3539.690000000001</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B104">
+        <v>5820.989999999997</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B105">
+        <v>6428.27</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B106">
+        <v>5033.78</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B107">
+        <v>2892.73</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B108">
+        <v>5326.730000000001</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B109">
+        <v>2639.261</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B110">
+        <v>2700.71</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B111">
+        <v>4910.749999999996</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B112">
+        <v>3571.209999999998</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B113">
+        <v>2828.469999999999</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B114">
+        <v>5096.649999999999</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B115">
+        <v>3680.199999999998</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B116">
+        <v>2899.12</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B117">
+        <v>4011.590000000001</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B118">
+        <v>3514.44</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B119">
+        <v>5226.549999999999</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B120">
+        <v>3829.650000000001</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B121">
+        <v>4798.209999999999</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B122">
+        <v>2859.609999999999</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B123">
+        <v>3586.359999999999</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B124">
+        <v>3753.169999999999</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B125">
+        <v>6388.059999999998</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B126">
+        <v>11806.52000000001</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B127">
+        <v>3599.27</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B128">
+        <v>2134.66</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B129">
+        <v>4000.109999999999</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B130">
+        <v>4885.369999999999</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B131">
+        <v>4305.88</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B132">
+        <v>5263.889999999996</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B133">
+        <v>3191.569999999999</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B134">
+        <v>4557.85</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B135">
+        <v>10573.22000000001</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B136">
+        <v>4005.069999999997</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B137">
+        <v>3102.33</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B138">
+        <v>3782.719999999999</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B139">
+        <v>2915.079999999999</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B140">
+        <v>1676.03</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B141">
+        <v>2973.19</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B142">
+        <v>5191.259999999998</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B143">
+        <v>789.21</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B144">
+        <v>2810.589999999998</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B145">
+        <v>2420.56</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B146">
+        <v>3903.610000000001</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B147">
+        <v>3834.499999999998</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B148">
+        <v>3044.829999999999</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B149">
+        <v>3018.459999999999</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B150">
+        <v>8362.499999999995</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B151">
+        <v>9259.769999999995</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B152">
+        <v>6350.979999999996</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B153">
+        <v>4197.129999999998</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B154">
+        <v>3275.069999999999</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B155">
+        <v>3401.000000000001</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B156">
+        <v>4070.229999999999</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B157">
+        <v>2742.299999999999</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B158">
+        <v>3435.06</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B159">
+        <v>3728.379999999999</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B160">
+        <v>3855.549999999998</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B161">
+        <v>3515.61</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B162">
+        <v>4508.97</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B163">
+        <v>2248.829999999999</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B164">
+        <v>2565.319999999999</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B165">
+        <v>2188.509999999999</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
+      <c r="A166" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B166">
+        <v>2944.679999999999</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
+      <c r="A167" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B167">
+        <v>1773.09</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2">
+      <c r="A168" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B168">
+        <v>3924.639999999999</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2">
+      <c r="A169" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B169">
+        <v>3149.189999999999</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2">
+      <c r="A170" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B170">
+        <v>3620.34</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2">
+      <c r="A171" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B171">
+        <v>4665.399999999995</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2">
+      <c r="A172" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B172">
+        <v>3592.539999999999</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2">
+      <c r="A173" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B173">
+        <v>4201.339999999999</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2">
+      <c r="A174" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B174">
+        <v>3721.859999999999</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2">
+      <c r="A175" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B175">
+        <v>1277.12</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2">
+      <c r="A176" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B176">
+        <v>2773.83</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2">
+      <c r="A177" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B177">
+        <v>5450.129999999997</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2">
+      <c r="A178" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B178">
+        <v>5467.859999999995</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2">
+      <c r="A179" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B179">
+        <v>5714.219999999998</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2">
+      <c r="A180" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B180">
+        <v>3126.980000000002</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2">
+      <c r="A181" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B181">
+        <v>4442.250000000001</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2">
+      <c r="A182" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B182">
+        <v>2865.439999999999</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2">
+      <c r="A183" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B183">
+        <v>3201.23</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2">
+      <c r="A184" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B184">
+        <v>13577.48</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2">
+      <c r="A185" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B185">
+        <v>4764.92</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2">
+      <c r="A186" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B186">
+        <v>7403.489999999999</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2">
+      <c r="A187" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B187">
+        <v>4048.170000000001</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2">
+      <c r="A188" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B188">
+        <v>2076.930000000001</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2">
+      <c r="A189" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B189">
+        <v>2987.970000000001</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2">
+      <c r="A190" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B190">
+        <v>3010.03</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2">
+      <c r="A191" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B191">
+        <v>2263.880999999999</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2">
+      <c r="A192" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B192">
+        <v>2188.91</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2">
+      <c r="A193" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B193">
+        <v>3887.699999999997</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2">
+      <c r="A194" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B194">
+        <v>2692.409999999999</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2">
+      <c r="A195" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B195">
+        <v>3071.349999999999</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2">
+      <c r="A196" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B196">
+        <v>1870.54</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2">
+      <c r="A197" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B197">
+        <v>3328.059999999999</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2">
+      <c r="A198" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B198">
+        <v>7228.01</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2">
+      <c r="A199" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B199">
+        <v>4212.249999999999</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2">
+      <c r="A200" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B200">
+        <v>4558.299999999998</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2">
+      <c r="A201" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B201">
+        <v>2632.070000000001</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2">
+      <c r="A202" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B202">
+        <v>6336.9</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2">
+      <c r="A203" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B203">
+        <v>3803.75</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2">
+      <c r="A204" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B204">
+        <v>6746.659999999998</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2">
+      <c r="A205" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B205">
+        <v>6773.809999999997</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2">
+      <c r="A206" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B206">
+        <v>2133.71</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2">
+      <c r="A207" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B207">
+        <v>2752.11</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2">
+      <c r="A208" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B208">
+        <v>2626.78</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2">
+      <c r="A209" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B209">
+        <v>4107.53</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2">
+      <c r="A210" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B210">
+        <v>4629.240000000001</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2">
+      <c r="A211" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B211">
+        <v>2261.9</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2">
+      <c r="A212" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B212">
+        <v>3247.670000000001</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2">
+      <c r="A213" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B213">
+        <v>3582.599999999999</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2">
+      <c r="A214" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B214">
+        <v>3826.29</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2">
+      <c r="A215" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B215">
+        <v>4277.86</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2">
+      <c r="A216" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B216">
+        <v>3554.280000000002</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2">
+      <c r="A217" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B217">
+        <v>2307.869999999999</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2">
+      <c r="A218" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B218">
+        <v>2738.02</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2">
+      <c r="A219" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B219">
+        <v>1381.82</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2">
+      <c r="A220" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B220">
+        <v>3127.629999999999</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2">
+      <c r="A221" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B221">
+        <v>3426.819999999999</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2">
+      <c r="A222" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B222">
+        <v>1409.84</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2">
+      <c r="A223" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B223">
+        <v>3569.91</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2">
+      <c r="A224" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B224">
+        <v>3071.119999999999</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2">
+      <c r="A225" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B225">
+        <v>5373.380000000001</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2">
+      <c r="A226" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B226">
+        <v>3269.78</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2">
+      <c r="A227" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B227">
+        <v>4211.93</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2">
+      <c r="A228" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B228">
+        <v>3262</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2">
+      <c r="A229" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B229">
+        <v>6033.120000000002</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2">
+      <c r="A230" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B230">
+        <v>1769.1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2">
+      <c r="A231" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B231">
+        <v>5568.209999999998</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2">
+      <c r="A232" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B232">
+        <v>3429.369999999999</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2">
+      <c r="A233" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B233">
+        <v>8821.740000000003</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2">
+      <c r="A234" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B234">
+        <v>4124.72</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2">
+      <c r="A235" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B235">
+        <v>3590.740000000001</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2">
+      <c r="A236" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B236">
+        <v>4210.03</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2">
+      <c r="A237" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B237">
+        <v>4214.059999999999</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2">
+      <c r="A238" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B238">
+        <v>7661.910000000005</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2">
+      <c r="A239" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B239">
+        <v>7158.45</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2">
+      <c r="A240" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B240">
+        <v>5473.729999999996</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2">
+      <c r="A241" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B241">
+        <v>5477.160999999997</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2">
+      <c r="A242" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B242">
+        <v>6000.311000000003</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2">
+      <c r="A243" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B243">
+        <v>3758.069999999998</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2">
+      <c r="A244" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B244">
+        <v>5980.559999999998</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2">
+      <c r="A245" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B245">
+        <v>6207.419999999998</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2">
+      <c r="A246" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B246">
+        <v>4288.299999999998</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2">
+      <c r="A247" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B247">
+        <v>3172.26</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2">
+      <c r="A248" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B248">
+        <v>2900.07</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2">
+      <c r="A249" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B249">
+        <v>2715.73</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2">
+      <c r="A250" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B250">
+        <v>3096.279999999999</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2">
+      <c r="A251" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B251">
+        <v>5245.779999999998</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2">
+      <c r="A252" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B252">
+        <v>42469.44</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2">
+      <c r="A253" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B253">
+        <v>1954.21</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2">
+      <c r="A254" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B254">
+        <v>3205.38</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2">
+      <c r="A255" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B255">
+        <v>9660.760000000004</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2">
+      <c r="A256" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B256">
+        <v>13042.39</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2">
+      <c r="A257" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B257">
+        <v>6043.429999999998</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2">
+      <c r="A258" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B258">
+        <v>5639.659999999999</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2">
+      <c r="A259" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B259">
+        <v>4228.41</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2">
+      <c r="A260" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B260">
+        <v>9600.380000000003</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2">
+      <c r="A261" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B261">
+        <v>5475.689999999998</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2">
+      <c r="A262" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B262">
+        <v>17292.36</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2">
+      <c r="A263" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B263">
+        <v>6957.119999999996</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2">
+      <c r="A264" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B264">
+        <v>3732.52</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2">
+      <c r="A265" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B265">
+        <v>4642.249999999998</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2">
+      <c r="A266" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B266">
+        <v>7747.310000000009</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2">
+      <c r="A267" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B267">
+        <v>5432.419999999995</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2">
+      <c r="A268" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B268">
+        <v>5104.009999999999</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2">
+      <c r="A269" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B269">
+        <v>19474.96000000001</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2">
+      <c r="A270" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B270">
+        <v>5103.44</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2">
+      <c r="A271" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B271">
+        <v>7452.339999999999</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2">
+      <c r="A272" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B272">
+        <v>7950.390000000009</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2">
+      <c r="A273" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B273">
+        <v>2597.079999999998</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2">
+      <c r="A274" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B274">
+        <v>3469.67</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2">
+      <c r="A275" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B275">
+        <v>8996.839999999998</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2">
+      <c r="A276" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B276">
+        <v>3173.520000000001</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2">
+      <c r="A277" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B277">
+        <v>4888.950000000002</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2">
+      <c r="A278" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B278">
+        <v>2896.270000000001</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2">
+      <c r="A279" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B279">
+        <v>6471.75</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2">
+      <c r="A280" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B280">
+        <v>5740.41</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2">
+      <c r="A281" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B281">
+        <v>5377.55</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2">
+      <c r="A282" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B282">
+        <v>6052.919999999999</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2">
+      <c r="A283" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B283">
+        <v>6312.120000000001</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2">
+      <c r="A284" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B284">
+        <v>11288.60000000001</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2">
+      <c r="A285" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B285">
+        <v>7046.900000000001</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2">
+      <c r="A286" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B286">
+        <v>7407.519999999997</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2">
+      <c r="A287" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B287">
+        <v>8743.120000000006</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2">
+      <c r="A288" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B288">
+        <v>6194.519999999998</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2">
+      <c r="A289" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B289">
+        <v>7701.7</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2">
+      <c r="A290" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B290">
+        <v>6649.869999999994</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2">
+      <c r="A291" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B291">
+        <v>7841.759999999999</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2">
+      <c r="A292" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B292">
+        <v>12422.64</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2">
+      <c r="A293" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B293">
+        <v>6832.609999999998</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2">
+      <c r="A294" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B294">
+        <v>4534.96</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2">
+      <c r="A295" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B295">
+        <v>5757.149999999999</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2">
+      <c r="A296" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B296">
+        <v>10788.64000000001</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2">
+      <c r="A297" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B297">
+        <v>7232.969999999996</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2">
+      <c r="A298" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B298">
+        <v>6346.149999999998</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2">
+      <c r="A299" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B299">
+        <v>3643.989999999999</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2">
+      <c r="A300" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B300">
+        <v>3568.919999999998</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2">
+      <c r="A301" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B301">
+        <v>7524.599999999999</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2">
+      <c r="A302" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B302">
+        <v>2982.579999999999</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2">
+      <c r="A303" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B303">
+        <v>2221.75</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2">
+      <c r="A304" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B304">
+        <v>2078.509999999999</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2">
+      <c r="A305" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B305">
+        <v>4239.699999999998</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2">
+      <c r="A306" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B306">
+        <v>4795.660000000003</v>
       </c>
     </row>
   </sheetData>
